--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-15.26530518444728</v>
+        <v>-15.26530518440942</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.29102396229253</v>
+        <v>19.29102396230163</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.42632561451315</v>
+        <v>26.4263256145393</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.02037514160126</v>
+        <v>-4.020375141562948</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.54355162607813</v>
+        <v>10.5435516260496</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.22016929173295</v>
+        <v>16.22016929176194</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.767071489438496</v>
+        <v>9.7670714894867</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.92531840177431</v>
+        <v>16.92531840180353</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.51160288464401</v>
+        <v>21.51160288463412</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.20113108530434</v>
+        <v>24.20113108525364</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.18899070908078</v>
+        <v>32.1889907090776</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.04137646978513</v>
+        <v>36.0413764697749</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.681833095897634</v>
+        <v>5.681833095884333</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.62054046273564</v>
+        <v>25.6205404627644</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.53357781136192</v>
+        <v>32.53357781136624</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-11.2226422526766</v>
+        <v>-11.22264225266808</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.33814918131039</v>
+        <v>23.33814918133369</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.475634202054</v>
+        <v>30.4756342020681</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.01846690425732689</v>
+        <v>0.01846690425346154</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.58625439146131</v>
+        <v>14.58625439149019</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.26466942980274</v>
+        <v>20.26466942981945</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.80997688010889</v>
+        <v>13.80997688009457</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.97140854151629</v>
+        <v>20.9714085415604</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-7.358955344024064</v>
+        <v>-7.358955344033614</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.19808555258836</v>
+        <v>27.19808555261962</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.33334604083605</v>
+        <v>34.33334604087425</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.887281634434505</v>
+        <v>3.887281634420862</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.45173136615104</v>
+        <v>18.45173136614388</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.12827973103215</v>
+        <v>24.12827973102477</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.67519310538144</v>
+        <v>17.67519310541032</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.83385228813855</v>
+        <v>24.83385228810228</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.42006687461408</v>
+        <v>29.42006687459942</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.11001965338376</v>
+        <v>32.11001965339422</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.09799589857649</v>
+        <v>40.09799589854761</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.95038310598711</v>
+        <v>43.95038310591799</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.59012084684794</v>
+        <v>13.59012084680053</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.52946360774406</v>
+        <v>33.52946360770359</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.44241864489761</v>
+        <v>40.44241864489784</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.314666566040199</v>
+        <v>-3.314666566040085</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.24683668664928</v>
+        <v>31.24683668668736</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.38428057443271</v>
+        <v>38.38428057443043</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.927749660205524</v>
+        <v>7.927749660232241</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.49606017079255</v>
+        <v>22.49606017082109</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.1744059322959</v>
+        <v>28.17440593226896</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.71972458482306</v>
+        <v>21.71972458484011</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.88156856611188</v>
+        <v>28.88156856612189</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.433690355426318</v>
+        <v>-3.43369035548498</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.12346750406387</v>
+        <v>31.12346750403283</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.2587352845804</v>
+        <v>38.25873528461518</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.813095118359758</v>
+        <v>7.81309511831758</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.37770455212236</v>
+        <v>22.37770455209655</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.05425628886879</v>
+        <v>28.05425628884366</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.60108599451015</v>
+        <v>21.60108599449787</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.75990005995466</v>
+        <v>28.75990005994716</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.346116955288</v>
+        <v>33.346116955293</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.03607210747016</v>
+        <v>36.03607210741002</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.02404722622187</v>
+        <v>44.02404722615491</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>47.87645964331666</v>
+        <v>47.87645964326687</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.51601256737657</v>
+        <v>17.51601256733689</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.45554113598719</v>
+        <v>37.45554113597696</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>44.36849278801135</v>
+        <v>44.36849278799987</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6112081220358796</v>
+        <v>0.6112081220004093</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.17282834486419</v>
+        <v>35.17282834486976</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.31027953057578</v>
+        <v>42.31027953059125</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>11.85417291876896</v>
+        <v>11.85417291879351</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.42264313947983</v>
+        <v>26.42264313942526</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.10099227807252</v>
+        <v>32.10099227808594</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.64622726082174</v>
+        <v>25.64622726084561</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.80822613224116</v>
+        <v>32.80822613224423</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-10.83895289608783</v>
+        <v>-10.83895289606896</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.71773380209511</v>
+        <v>23.71773380206249</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.85313490755046</v>
+        <v>30.85313490754398</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.4068788015914215</v>
+        <v>0.4068788016240497</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14.97114589105304</v>
+        <v>14.97114589105395</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.64785454715714</v>
+        <v>20.64785454712167</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.1944289696714</v>
+        <v>14.19442896969879</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.35297338380891</v>
+        <v>21.35297338382323</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.93933704911656</v>
+        <v>25.93933704913168</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.62882274039017</v>
+        <v>28.62882274039733</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.61671867506136</v>
+        <v>36.616718675021</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.46921388126925</v>
+        <v>40.46921388126016</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.10917482075827</v>
+        <v>10.10917482074679</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.04830447706373</v>
+        <v>30.04830447707885</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.96142945417326</v>
+        <v>36.96142945417849</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-6.795524977942403</v>
+        <v>-6.795524977907274</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.76562403678652</v>
+        <v>27.76562403685348</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.90320853834176</v>
+        <v>34.90320853832618</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.446485919833396</v>
+        <v>4.446485919864887</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.01461375900142</v>
+        <v>19.01461375906293</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.69311981156632</v>
+        <v>24.69311981160577</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.23809945996</v>
+        <v>18.23809945996534</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.39982865030193</v>
+        <v>25.39982865031898</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.55920983154938</v>
+        <v>25.55920983159406</v>
       </c>
     </row>
     <row r="95">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.24018671807671</v>
+        <v>36.24018671804579</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.09385588719631</v>
+        <v>40.09385588712344</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.728438395552036</v>
+        <v>9.728438395599557</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.67268040130564</v>
+        <v>29.67268040131349</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.58721509287768</v>
+        <v>36.58721509288064</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.550835024642236</v>
+        <v>-0.5508350246345053</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.01118010213595</v>
+        <v>34.01118010217972</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.14926722386686</v>
+        <v>41.14926722381638</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.69278152290606</v>
+        <v>10.69278152286536</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.26179989329042</v>
+        <v>25.26179989325654</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.94087739069558</v>
+        <v>30.94087739065931</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.48636975926225</v>
+        <v>24.4863697592685</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.64890690943999</v>
+        <v>31.64890690945841</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.2373057496355</v>
+        <v>36.23730574968654</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.92982720358107</v>
+        <v>38.92982720357777</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.92082534759852</v>
+        <v>46.92082534760523</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.7748335966598</v>
+        <v>50.77483359665548</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.40677687860383</v>
+        <v>20.40677687860303</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.35238028645513</v>
+        <v>40.35238028646582</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.26776411712372</v>
+        <v>47.26776411712235</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.46929997975151</v>
+        <v>33.46929997976629</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.16027843431989</v>
+        <v>36.16027843434809</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.15081802510618</v>
+        <v>44.15081802510731</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>48.00448865153108</v>
+        <v>48.00448865147719</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.63835221823361</v>
+        <v>17.63835221822452</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.58322970006527</v>
+        <v>37.58322970011223</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>44.4976820995865</v>
+        <v>44.49768209961378</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>7.358018531765499</v>
+        <v>7.358018531754244</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.92074548790988</v>
+        <v>41.92074548789897</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.05879145733634</v>
+        <v>49.05879145728893</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>18.60294226339211</v>
+        <v>18.60294226334266</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.17248366346185</v>
+        <v>33.1724836634382</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.85149186794747</v>
+        <v>38.85149186793952</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.39699546986908</v>
+        <v>32.39699546983225</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.55994494434044</v>
+        <v>39.55994494430622</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.14827389439206</v>
+        <v>44.1482738943575</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.84121991266791</v>
+        <v>46.84121991265688</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.83233469140744</v>
+        <v>54.83233469144348</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>58.68634439033822</v>
+        <v>58.68634439031969</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.31756872034824</v>
+        <v>28.31756872035153</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.26380760701529</v>
+        <v>48.26380760700302</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>55.17910913375961</v>
+        <v>55.17910913377393</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.3959598594176</v>
+        <v>37.39595985940885</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.08694063067465</v>
+        <v>40.08694063070182</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>48.07747908620065</v>
+        <v>48.07747908617894</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>51.93117492610357</v>
+        <v>51.93117492603012</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.56485369012451</v>
+        <v>21.56485369011735</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.50991698824642</v>
+        <v>41.50991698821754</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>48.42436600817719</v>
+        <v>48.4243660081117</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>11.28430942858207</v>
+        <v>11.28430942848168</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.84715335483845</v>
+        <v>45.84715335482447</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>52.98520661211917</v>
+        <v>52.98520661212349</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.52978175581685</v>
+        <v>22.52978175574636</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.09948286332163</v>
+        <v>37.09948286329639</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.77849443802025</v>
+        <v>42.77849443801706</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.3239143897285</v>
+        <v>36.32391438967575</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.48701875165973</v>
+        <v>43.48701875165723</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>48.07535000969774</v>
+        <v>48.07535000967</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>50.76829834854477</v>
+        <v>50.76829834852613</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>58.75941198914911</v>
+        <v>58.75941198909796</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.61344689820358</v>
+        <v>62.61344689815446</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.2444864213896</v>
+        <v>32.2444864213531</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.19091111916369</v>
+        <v>52.19091111918836</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>59.1062092598706</v>
+        <v>59.1062092598532</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.98770914349878</v>
+        <v>29.98770914350048</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.67822046619274</v>
+        <v>32.6782204661824</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.66867973216684</v>
+        <v>40.6686797321773</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.52245836933305</v>
+        <v>44.52245836936636</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.15654519111782</v>
+        <v>14.15654519112168</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.10120952665393</v>
+        <v>34.10120952667565</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>41.0158318685787</v>
+        <v>41.01583186858143</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3.877093864450405</v>
+        <v>3.87709386449588</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.4394665795174</v>
+        <v>38.43946657949671</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.57765316948583</v>
+        <v>45.57765316950993</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.12161220521246</v>
+        <v>15.12161220522542</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.69097093127398</v>
+        <v>29.6909709312708</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.37013943724601</v>
+        <v>35.37013943724101</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.91530404056092</v>
+        <v>28.91530404054261</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.0781387219965</v>
+        <v>36.07813872201105</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.66661676198972</v>
+        <v>40.66661676200449</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.35909562721504</v>
+        <v>43.35909562725529</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.35013007841469</v>
+        <v>51.35013007837354</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.20424778907189</v>
+        <v>55.20424778908655</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.83569535351633</v>
+        <v>24.83569535348757</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.78172109199518</v>
+        <v>44.78172109198165</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>51.69719256910533</v>
+        <v>51.69719256909532</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-17.00551955948985</v>
+        <v>-17.00551955944892</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.54805705708687</v>
+        <v>17.54805705710153</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.6832175346835</v>
+        <v>24.68321753465496</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5.761820428986919</v>
+        <v>-5.761820428944286</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8.800643039773679</v>
+        <v>8.80064303978823</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.47719667221527</v>
+        <v>14.47719667222869</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.02470152294639</v>
+        <v>8.024701522944458</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>15.18201817733321</v>
+        <v>15.18201817732002</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19.76827149078857</v>
+        <v>19.76827149082733</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.45756828330123</v>
+        <v>22.45756828331442</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.44472884615125</v>
+        <v>30.44472884612442</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.29708844971306</v>
+        <v>34.29708844967463</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.940099386333333</v>
+        <v>3.940099386358231</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.87692415974421</v>
+        <v>23.87692415977513</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.78985963076203</v>
+        <v>30.78985963079954</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-12.96512959388569</v>
+        <v>-12.96512959388523</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.59290898700074</v>
+        <v>21.59290898700859</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.73025280027783</v>
+        <v>28.73025280029113</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.725251262823615</v>
+        <v>-1.725251262858517</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>12.84107266723364</v>
+        <v>12.84107266717429</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18.51942366549027</v>
+        <v>18.5194236654606</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.06533363331797</v>
+        <v>12.06533363336117</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.22583482846149</v>
+        <v>19.22583482850139</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-9.099479312624037</v>
+        <v>-9.099479312653482</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.45480900372225</v>
+        <v>25.45480900366711</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.58992832724023</v>
+        <v>32.58992832718111</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.145526679749157</v>
+        <v>2.145526679731763</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.70851307307381</v>
+        <v>16.70851307306255</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.38499741636697</v>
+        <v>22.3849974163913</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>15.93251345211702</v>
+        <v>15.93251345204381</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.09024234440274</v>
+        <v>23.09024234433408</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.67642577258149</v>
+        <v>27.6764257725957</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.36614710853162</v>
+        <v>30.36614710858187</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.35342428439101</v>
+        <v>38.35342428437407</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.20578533641613</v>
+        <v>42.20578533641863</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11.84807743504844</v>
+        <v>11.84807743497841</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.78553755587491</v>
+        <v>31.78553755589958</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.69839072697785</v>
+        <v>38.69839072697364</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-5.057463608385699</v>
+        <v>-5.057463608386495</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.50128674089213</v>
+        <v>29.50128674087587</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.63858943109183</v>
+        <v>36.63858943108978</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.183721717831606</v>
+        <v>6.183721717824444</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.75056863193216</v>
+        <v>20.75056863193852</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.4288503648772</v>
+        <v>26.42885036491881</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.97477154325937</v>
+        <v>19.97477154326994</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.13568502594247</v>
+        <v>27.13568502594588</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-5.174378498514255</v>
+        <v>-5.174378498519939</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.38002677495827</v>
+        <v>29.38002677491462</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.51515339306771</v>
+        <v>36.51515339299574</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.071175960458351</v>
+        <v>6.07117596050394</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.63432204677743</v>
+        <v>20.6343220467489</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.3108097643537</v>
+        <v>26.31080976431254</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.8582421375523</v>
+        <v>19.85824213753013</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.01612590362375</v>
+        <v>27.01612590358419</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.60231164282853</v>
+        <v>31.6023116428308</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.29203534504229</v>
+        <v>34.29203534503115</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.2793113962867</v>
+        <v>42.27931139623225</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>46.13169765727703</v>
+        <v>46.13169765721518</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.77380494614654</v>
+        <v>15.77380494610277</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.71145086376494</v>
+        <v>35.71145086377665</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.62430065290535</v>
+        <v>42.62430065284634</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-1.131753118250952</v>
+        <v>-1.131753118269028</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.42711419579094</v>
+        <v>33.42711419572193</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.5644241860643</v>
+        <v>40.5644241860128</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.10998074958725</v>
+        <v>10.10998074951882</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.67698736465862</v>
+        <v>24.67698736459029</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.35527247726107</v>
+        <v>30.3552724772123</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.90110999210636</v>
+        <v>23.90110999207362</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.06217835606101</v>
+        <v>31.062178356026</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-12.57933388654298</v>
+        <v>-12.57933388649978</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.97460026040661</v>
+        <v>21.97460026039626</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.10986019167327</v>
+        <v>29.10986019168373</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.334733152219581</v>
+        <v>-1.334733152169445</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.22807061695342</v>
+        <v>13.22807061697059</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.90471524049379</v>
+        <v>18.9047152404947</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.45189233633558</v>
+        <v>12.45189233634354</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.60950647344199</v>
+        <v>19.60950647345358</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.19583897005653</v>
+        <v>24.19583897005335</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.88509323855768</v>
+        <v>26.88509323859656</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.87229011330858</v>
+        <v>34.87229011331483</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.72475915831929</v>
+        <v>38.72475915832008</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.367274435234282</v>
+        <v>8.367274435297606</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.30452147103832</v>
+        <v>28.30452147105753</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.21754457299001</v>
+        <v>35.21754457301456</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-8.538178971357222</v>
+        <v>-8.538178971340056</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.02021716939756</v>
+        <v>26.02021716938278</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.15766046362587</v>
+        <v>33.15766046361507</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.702601049027255</v>
+        <v>2.702601049025095</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>17.26926531000682</v>
+        <v>17.26926531004104</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.94770732310345</v>
+        <v>22.9477073231255</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.49328950927346</v>
+        <v>16.4932895092946</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.65408821435513</v>
+        <v>23.65408821433001</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.81360494975316</v>
+        <v>23.81360494977203</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.50392737351543</v>
+        <v>26.5039273735883</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.49365114298844</v>
+        <v>34.49365114298287</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.34729415079012</v>
+        <v>38.34729415078864</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.984431238907707</v>
+        <v>7.984431238899862</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.92679030020891</v>
+        <v>27.92679030024643</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.84122313027508</v>
+        <v>34.84122313034625</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-2.293607650583038</v>
+        <v>-2.293607650580082</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.26565455969747</v>
+        <v>32.26565455965506</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.4036004031279</v>
+        <v>39.40360040314336</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.948777976934782</v>
+        <v>8.948777976958656</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.5163327088264</v>
+        <v>23.51633270880162</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.1953460947495</v>
+        <v>29.195346094742</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.74144099498661</v>
+        <v>22.74144099498797</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.90304760141756</v>
+        <v>29.903047601447</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.49141520905989</v>
+        <v>34.49141520906819</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.18370509411734</v>
+        <v>37.1837050941843</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.17400399047388</v>
+        <v>45.17400399051435</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.02798602871378</v>
+        <v>49.02798602877097</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>18.6624840710942</v>
+        <v>18.66248407114877</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.60620444109959</v>
+        <v>38.60620444116303</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.52148633653492</v>
+        <v>45.52148633658381</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.72338528173391</v>
+        <v>31.72338528173016</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.41413219713134</v>
+        <v>34.41413219714362</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>42.40397259103288</v>
+        <v>42.40397259102549</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>46.25761705791713</v>
+        <v>46.25761705789087</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.89403525113683</v>
+        <v>15.89403525107783</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.83702974189369</v>
+        <v>35.83702974192825</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.75138029156342</v>
+        <v>42.75138029153466</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5.614936165753608</v>
+        <v>5.614936165724504</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.17491015501726</v>
+        <v>40.17491015498145</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.31281485607629</v>
+        <v>47.31281485606674</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.85862890312736</v>
+        <v>16.85862890316226</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.42670662501139</v>
+        <v>31.42670662505028</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.10565072973129</v>
+        <v>37.10565072975324</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.65175687207405</v>
+        <v>30.65175687204188</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>37.81377577026133</v>
+        <v>37.81377577023348</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.40207349892201</v>
+        <v>42.40207349887619</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>45.09478791341265</v>
+        <v>45.09478791347347</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.08520343642392</v>
+        <v>53.08520343638584</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.93918692638063</v>
+        <v>56.93918692640257</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.5729660635421</v>
+        <v>26.5729660634873</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.51732186585271</v>
+        <v>46.51732186585407</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.43252146892605</v>
+        <v>53.43252146896266</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.64988092758036</v>
+        <v>35.64988092757967</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.34063015226464</v>
+        <v>38.34063015225588</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.33046941288156</v>
+        <v>46.33046941283574</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.18413909251531</v>
+        <v>50.18413909242527</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.82037248993932</v>
+        <v>19.82037248994671</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.76355278614615</v>
+        <v>39.7635527861557</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.67789995961046</v>
+        <v>46.6778999595776</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>9.541062833758208</v>
+        <v>9.541062833729558</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>44.10115378785993</v>
+        <v>44.10115378782355</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.23906577898158</v>
+        <v>51.2390657789452</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.78530413804056</v>
+        <v>20.78530413807069</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.35354155875002</v>
+        <v>35.3535415587407</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.03248903609445</v>
+        <v>41.0324890360484</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.57851153390273</v>
+        <v>34.57851153392365</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.74068531102201</v>
+        <v>41.74068531101666</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.32898534991416</v>
+        <v>46.32898534988938</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.02170207722016</v>
+        <v>49.02170207723243</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.01211646447241</v>
+        <v>57.01211646445388</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>60.8661251635984</v>
+        <v>60.86612516354769</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.49971950073958</v>
+        <v>30.49971950065977</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.44426110354568</v>
+        <v>50.44426110348464</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>57.35945732382773</v>
+        <v>57.35945732377429</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.24193753913956</v>
+        <v>28.24193753916139</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.93221734275729</v>
+        <v>30.93221734277411</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.92197742117669</v>
+        <v>38.92197742115941</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.77572989305027</v>
+        <v>42.77572989304356</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.41237132103102</v>
+        <v>12.41237132100374</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.35515268522666</v>
+        <v>32.3551526852827</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.26967316828627</v>
+        <v>39.26967316829685</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.134154532900045</v>
+        <v>2.134154532927102</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.69377431036135</v>
+        <v>36.69377431035419</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.83181962240663</v>
+        <v>43.83181962241993</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.37744190225961</v>
+        <v>13.37744190229258</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.9453369687579</v>
+        <v>27.9453369687695</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.62444136393465</v>
+        <v>33.62444136398149</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.17020851925243</v>
+        <v>27.17020851930222</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.33211263799588</v>
+        <v>34.3321126380492</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.92055944615875</v>
+        <v>38.92055944619229</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.61280672728772</v>
+        <v>41.61280672729568</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.60314193217262</v>
+        <v>49.6031419321932</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.45723342784818</v>
+        <v>53.4572334278558</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.0912357789759</v>
+        <v>23.09123577906128</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.03537845304375</v>
+        <v>43.03537845309752</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>49.95074799737843</v>
+        <v>49.95074799740469</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-15.48465126665296</v>
+        <v>-15.48465126673618</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.06886151135696</v>
+        <v>19.06886151135855</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.20384759269139</v>
+        <v>26.20384759268832</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-4.241085678326424</v>
+        <v>-4.241085678286407</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10.32148776293976</v>
+        <v>10.32148776292134</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.99785427052912</v>
+        <v>15.99785427049388</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.545291524443844</v>
+        <v>9.545291524462602</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.70275346991737</v>
+        <v>16.70275346992567</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.28883686415277</v>
+        <v>21.28883686412481</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.97812794586953</v>
+        <v>23.97812794590159</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.9653186438912</v>
+        <v>31.96531864388608</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.81754342950042</v>
+        <v>35.81754342943846</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>5.460454424490496</v>
+        <v>5.460454424527672</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.39743981293357</v>
+        <v>25.39743981292743</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.31015460475051</v>
+        <v>32.31015460477643</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-11.44358318930692</v>
+        <v>-11.4435831893101</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.1143915348891</v>
+        <v>23.11439153490149</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.25156093379049</v>
+        <v>30.25156093384586</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.2038382443072742</v>
+        <v>-0.203838244244519</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.36259561848245</v>
+        <v>14.36259561854168</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.04075949466604</v>
+        <v>20.04075949470117</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>13.58660190122994</v>
+        <v>13.58660190120505</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.74724834723937</v>
+        <v>20.74724834725358</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-7.578761734959055</v>
+        <v>-7.578761734970197</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.97546274338068</v>
+        <v>26.97546274330064</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.11040766642869</v>
+        <v>34.11040766642084</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.666110700441624</v>
+        <v>3.666110700525071</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.22920706879821</v>
+        <v>18.22920706885505</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.90550428369564</v>
+        <v>23.90550428379932</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.4529527165383</v>
+        <v>17.45295271654557</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.61082690295514</v>
+        <v>24.6108269029166</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.19684040890805</v>
+        <v>29.19684040887406</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.88655603245748</v>
+        <v>31.88655603250648</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.87386334387504</v>
+        <v>39.87386334392939</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.72608957787902</v>
+        <v>43.72608957789301</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.36828173691761</v>
+        <v>13.36828173687339</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.30590247511414</v>
+        <v>33.30590247508947</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.21853496375395</v>
+        <v>40.21853496379363</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-3.536067916534005</v>
+        <v>-3.536067916582322</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.02261857619404</v>
+        <v>31.02261857618722</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.15974684814246</v>
+        <v>38.15974684811461</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.704984008989147</v>
+        <v>7.704984009055767</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.27194085828372</v>
+        <v>22.27194085822574</v>
       </c>
     </row>
     <row r="405">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.49588907644314</v>
+        <v>21.49588907642995</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.65694781307385</v>
+        <v>28.656947813056</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-3.653730085420801</v>
+        <v>-3.653730085381692</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.90061134891683</v>
+        <v>30.90061134895582</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>38.03556356600036</v>
+        <v>38.03556356596796</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.591690811675296</v>
+        <v>7.591690811679729</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.15494687169947</v>
+        <v>22.15494687166195</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.83124746053462</v>
+        <v>27.83124746055792</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.37861223027763</v>
+        <v>21.3786122302566</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.5366412890938</v>
+        <v>28.53664128907242</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.12265710551283</v>
+        <v>33.12265710551556</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.81237509664216</v>
+        <v>35.81237509662886</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.79968128308117</v>
+        <v>43.79968128309766</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.65193272579263</v>
+        <v>47.65193272578502</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.29394007889387</v>
+        <v>17.2939400788551</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.23174661251944</v>
+        <v>37.23174661250137</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>44.14437571850904</v>
+        <v>44.1443757185245</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.389573402013486</v>
+        <v>0.3895734019057109</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.94837685807427</v>
+        <v>34.94837685800879</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.08551242944698</v>
+        <v>42.08551242942686</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>11.63117386375514</v>
+        <v>11.63117386374491</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.1982904125684</v>
+        <v>26.19829041254089</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.87638839926281</v>
+        <v>31.87638839929157</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.42215834586655</v>
+        <v>25.4221583458204</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.5833719624007</v>
+        <v>32.58337196242185</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-11.05855544359558</v>
+        <v>-11.0585554435742</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.49531486014526</v>
+        <v>23.49531486016345</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.63040039341987</v>
+        <v>30.63040039343794</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.1859117403218598</v>
+        <v>0.1859117403127648</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>14.74882547780927</v>
+        <v>14.74882547782382</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.42528297491136</v>
+        <v>20.42528297493137</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.97239247580281</v>
+        <v>13.97239247578098</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.13015190057009</v>
+        <v>21.13015190056815</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.7163144766616</v>
+        <v>25.71631447668161</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.40556304014384</v>
+        <v>28.40556304018931</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.39279004862438</v>
+        <v>36.39279004865985</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.2451242742854</v>
+        <v>40.24512427433417</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.887539617464729</v>
+        <v>9.887539617522254</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.82494726430464</v>
+        <v>29.82494726433454</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.73774968410869</v>
+        <v>36.73774968409971</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-7.016722422674928</v>
+        <v>-7.016722422652986</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.54160985603183</v>
+        <v>27.54160985602944</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.67887873477441</v>
+        <v>34.67887873479636</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>4.223924203115264</v>
+        <v>4.223924203108442</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.79069839243364</v>
+        <v>18.79069839245411</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.4689532821554</v>
+        <v>24.46895328211186</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.01446790867313</v>
+        <v>18.0144679086762</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.17541186130912</v>
+        <v>25.17541186134118</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.33484855690229</v>
+        <v>25.33484855687353</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.02516528715974</v>
+        <v>28.02516528721761</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.01491914043125</v>
+        <v>36.01491914041408</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.86842731105999</v>
+        <v>39.86842731107852</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.505464534530763</v>
+        <v>9.505464534446407</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.44798415624844</v>
+        <v>29.44798415621854</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.36219631600109</v>
+        <v>36.36219631595198</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-0.7725992698513373</v>
+        <v>-0.7725992699409225</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.78659908746995</v>
+        <v>33.7865990874903</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.924370528539</v>
+        <v>40.92437052857595</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.46965292754131</v>
+        <v>10.46965292759497</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.03731760843819</v>
+        <v>25.03731760842728</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.71614387762778</v>
+        <v>30.716143877623</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.26217117699828</v>
+        <v>24.26217117699999</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.42392305308916</v>
+        <v>31.42392305305585</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.01212075197346</v>
+        <v>36.0121207519755</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.70440487985782</v>
+        <v>38.70440487991387</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.69473388057868</v>
+        <v>46.69473388053969</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.5485810925846</v>
+        <v>50.54858109256277</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.18297927179534</v>
+        <v>20.18297927172133</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.12686020748556</v>
+        <v>40.12686020747476</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.04192143704957</v>
+        <v>47.04192143696669</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.24447815432571</v>
+        <v>33.24447815432059</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.93521937488306</v>
+        <v>35.93521937490159</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.9250898528315</v>
+        <v>43.92508985283048</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>47.77859948246937</v>
+        <v>47.77859948249757</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>17.41491781292105</v>
+        <v>17.41491781293287</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>37.35807286649352</v>
+        <v>37.3580728665092</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.2722027427039</v>
+        <v>44.27220274270401</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>7.135793821315435</v>
+        <v>7.135793821282579</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.695703958121</v>
+        <v>41.69570395808553</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>48.83343425280823</v>
+        <v>48.83343425278322</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>18.3793531138419</v>
+        <v>18.37935311390955</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.94754078750141</v>
+        <v>32.94754078754006</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.62629777195225</v>
+        <v>38.62629777196305</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.17233630683764</v>
+        <v>32.17233630682308</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>39.33450047804941</v>
+        <v>39.33450047803895</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.92262829486613</v>
+        <v>43.92262829486579</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.61533695061139</v>
+        <v>46.61533695066426</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.60578257827076</v>
+        <v>54.6057825782927</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>58.4596312416996</v>
+        <v>58.4596312417204</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.09331051779016</v>
+        <v>28.09331051783484</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.03782688816803</v>
+        <v>48.03782688821202</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>54.95280582224855</v>
+        <v>54.95280582231051</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.17090461900303</v>
+        <v>37.17090461891867</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>39.86164815027674</v>
+        <v>39.86164815032505</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>47.85151749452434</v>
+        <v>47.85151749452355</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.70505233667116</v>
+        <v>51.70505233665411</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.34118587507574</v>
+        <v>21.34118587511235</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.28452673293141</v>
+        <v>41.28452673291424</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>48.19865323192114</v>
+        <v>48.19865323190704</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.0618513177089</v>
+        <v>11.06185131769651</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>45.6218784179019</v>
+        <v>45.62187841779264</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>52.75961600200692</v>
+        <v>52.7596160020034</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.30595917170509</v>
+        <v>22.30595917166132</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.8743065426</v>
+        <v>36.87430654256634</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.55306689923846</v>
+        <v>42.55306689923857</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.09902178931755</v>
+        <v>36.09902178928321</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>43.2613408379636</v>
+        <v>43.26134083791301</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>47.8494709645109</v>
+        <v>47.8494709644951</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.54218193471191</v>
+        <v>50.54218193468883</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>58.53262642608566</v>
+        <v>58.53262642605689</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>62.38650029866001</v>
+        <v>62.38650029862681</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.01999477851935</v>
+        <v>32.0199947785455</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>51.96469694794935</v>
+        <v>51.96469694803348</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>58.87967249827337</v>
+        <v>58.87967249824392</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.76309127332089</v>
+        <v>29.76309127337693</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.45336538970317</v>
+        <v>32.45336538977536</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.44315555014857</v>
+        <v>40.44315555018109</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.29677318383365</v>
+        <v>44.29677318387742</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.93331475475334</v>
+        <v>13.93331475473038</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.87625667540119</v>
+        <v>33.87625667543496</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.79055648496019</v>
+        <v>40.79055648497747</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>3.655073049690561</v>
+        <v>3.655073049664868</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.21462896934914</v>
+        <v>38.21462896930912</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.35249987765742</v>
+        <v>45.3524998776423</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.89822698012184</v>
+        <v>14.89822698007136</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.4662319914623</v>
+        <v>29.46623199146434</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.14514926839065</v>
+        <v>35.145149268362</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.69084882468549</v>
+        <v>28.69084882470016</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.85289820981821</v>
+        <v>35.85289820978694</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.44117510806446</v>
+        <v>40.44117510805036</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.13341663786851</v>
+        <v>43.13341663792228</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.12378194544506</v>
+        <v>51.12378194544767</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.97773861360629</v>
+        <v>54.97773861357378</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.61164110966475</v>
+        <v>24.61164110968362</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>44.5559443453338</v>
+        <v>44.55594434536575</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>51.47109322071351</v>
+        <v>51.47109322076945</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-11.98175599380276</v>
+        <v>-11.98175599380242</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.57504717852438</v>
+        <v>22.57504717851323</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.71069459978249</v>
+        <v>29.71069459981875</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.7366092255640915</v>
+        <v>-0.7366092255394214</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.82745033939678</v>
+        <v>13.82745033940428</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.50435436082303</v>
+        <v>19.50435436083815</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.05112939081558</v>
+        <v>13.05112939085901</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.20939474425468</v>
+        <v>20.20939474424195</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.79591598474675</v>
+        <v>24.79591598476096</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.48554138503092</v>
+        <v>27.48554138503933</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.47348364173361</v>
+        <v>35.4734836417194</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.32606766276884</v>
+        <v>39.32606766277293</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.96602184542083</v>
+        <v>8.966021845411053</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.9049214354089</v>
+        <v>28.90492143545289</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.81830868074265</v>
+        <v>35.81830868074367</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-7.938815269310492</v>
+        <v>-7.938815269321747</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.62245025284377</v>
+        <v>26.62245025283808</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.76028115105619</v>
+        <v>33.76028115111883</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.302510558395245</v>
+        <v>3.30251055840343</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.87043090976541</v>
+        <v>17.87043090977109</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.54913241108939</v>
+        <v>23.54913241108462</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.09431255016098</v>
+        <v>17.09431255019293</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.25576271072233</v>
+        <v>24.25576271071471</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.075065863058892</v>
+        <v>-4.075065863099592</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.48244907331385</v>
+        <v>30.48244907326269</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>37.61805533239404</v>
+        <v>37.6180553323663</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.17138787528059</v>
+        <v>7.171387875304919</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.73597041485126</v>
+        <v>21.7359704148383</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.41280513587477</v>
+        <v>27.4128051358983</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.95959134862263</v>
+        <v>20.95959134858397</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.11826898059208</v>
+        <v>28.11826898059811</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.70472032509822</v>
+        <v>32.70472032508094</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.39477030298833</v>
+        <v>35.39477030295411</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.38282918362172</v>
+        <v>43.38282918363264</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>47.23541465173339</v>
+        <v>47.23541465164699</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.87464993340901</v>
+        <v>16.87464993338388</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.81418492973633</v>
+        <v>36.81418492971905</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.72748986338441</v>
+        <v>43.72748986339703</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.03049925845952473</v>
+        <v>-0.03049925846532275</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.53147809619766</v>
+        <v>34.53147809623825</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>41.66926786318932</v>
+        <v>41.66926786320512</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.21213367289177</v>
+        <v>11.21213367289279</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.78057705832335</v>
+        <v>25.78057705834825</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.45920928352992</v>
+        <v>31.45920928352082</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.00440063003755</v>
+        <v>25.00440063010224</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.16626311892635</v>
+        <v>32.16626311897672</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.1496621491531123</v>
+        <v>-0.149662149147769</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.40796975311999</v>
+        <v>34.40796975308656</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>41.54358330583814</v>
+        <v>41.54358330584621</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.09734009821189</v>
+        <v>11.09734009816653</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.66208234325025</v>
+        <v>25.66208234323672</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.33892043765282</v>
+        <v>31.33892043760598</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.88562298164603</v>
+        <v>24.88562298156997</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.04445549980979</v>
+        <v>32.04445549973259</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.6309091543031</v>
+        <v>36.63090915423625</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.32096149927061</v>
+        <v>39.32096149923059</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.3090192545247</v>
+        <v>47.30901925448696</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>51.1616299329</v>
+        <v>51.16162993292501</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>20.80068039292583</v>
+        <v>20.80068039292276</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.74040120110404</v>
+        <v>40.74040120106243</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>47.65370275065386</v>
+        <v>47.65370275065284</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>3.895514169206724</v>
+        <v>3.895514169266182</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.45760849715778</v>
+        <v>38.45760849712185</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>45.59540556347652</v>
+        <v>45.59540556345344</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.13869568403705</v>
+        <v>15.13869568404785</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.70729878311495</v>
+        <v>29.70729878307869</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.38593438669245</v>
+        <v>35.38593438668916</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.93104206401388</v>
+        <v>28.93104206402639</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.09305944663454</v>
+        <v>36.09305944666137</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-7.555197594219219</v>
+        <v>-7.555197594229224</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.00196313712157</v>
+        <v>27.0019631371069</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.1377100171198</v>
+        <v>34.13771001713958</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.690850851001944</v>
+        <v>3.690850851002057</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.25525074410367</v>
+        <v>18.25525074411776</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.93224576089991</v>
+        <v>23.9322457609181</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.47869301225929</v>
+        <v>17.47869301227009</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.63725587302891</v>
+        <v>24.63725587303403</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.22385630051891</v>
+        <v>29.22385630050697</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.91343917736318</v>
+        <v>31.9134391773559</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>39.90141774795207</v>
+        <v>39.90141774794047</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>43.75411121759323</v>
+        <v>43.75411121759699</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.39356970359536</v>
+        <v>13.39356970362424</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.332891590702</v>
+        <v>33.33289159075112</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>40.24636646989809</v>
+        <v>40.24636646991537</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-3.511491862449173</v>
+        <v>-3.511491862426777</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.05013124805517</v>
+        <v>31.05013124806949</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.18806163252459</v>
+        <v>38.18806163256734</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>7.730735727760777</v>
+        <v>7.730735727777148</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.29899643787879</v>
+        <v>22.29899643790755</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.97778895853726</v>
+        <v>27.97778895855602</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.52264129177657</v>
+        <v>21.52264129181068</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.68438898678149</v>
+        <v>28.68438898681696</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.84380085494793</v>
+        <v>28.84380085491167</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.53445196715048</v>
+        <v>31.53445196711433</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.5249576187078</v>
+        <v>39.52495761869416</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>43.37882510743425</v>
+        <v>43.37882510741231</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.01290500086369</v>
+        <v>13.012905000863</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.95733934176015</v>
+        <v>32.95733934174537</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.87222403385495</v>
+        <v>39.87222403387291</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2.73213243549306</v>
+        <v>2.732132435508067</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.29462165396724</v>
+        <v>37.29462165398168</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>44.43305467379123</v>
+        <v>44.43305467382181</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.97596571547213</v>
+        <v>13.97596571545201</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.54511694369247</v>
+        <v>28.54511694364438</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.22448092688781</v>
+        <v>34.22448092686462</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.76984594401172</v>
+        <v>27.76984594406243</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.93240158522833</v>
+        <v>34.93240158521151</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.52103729988319</v>
+        <v>39.52103729992662</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.21365601435907</v>
+        <v>42.21365601437306</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.20473685415637</v>
+        <v>50.20473685419093</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>54.05894343175687</v>
+        <v>54.05894343179837</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.69038407985302</v>
+        <v>23.69038407982051</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.63617981487421</v>
+        <v>43.63617981483806</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.55191367994685</v>
+        <v>50.55191367995424</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.75423138698598</v>
+        <v>36.75423138699985</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.44530702512959</v>
+        <v>39.44530702517859</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.43592931191377</v>
+        <v>47.43592931192605</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.28979825840243</v>
+        <v>51.28979825842778</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.9231591941087</v>
+        <v>20.92315919406231</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.86822902330739</v>
+        <v>40.86822902334696</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.78303142332818</v>
+        <v>47.78303142330056</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>10.64132633008531</v>
+        <v>10.6413263300919</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.20452739197067</v>
+        <v>45.20452739198863</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>52.34291926132842</v>
+        <v>52.34291926128454</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.88646682849897</v>
+        <v>21.88646682844486</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.45614109696164</v>
+        <v>36.45614109690889</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.13543578802292</v>
+        <v>42.13543578795152</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.68081204392111</v>
+        <v>35.68081204390974</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.84378001792477</v>
+        <v>42.84378001790249</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.43234584278748</v>
+        <v>47.43234584282341</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.12538912123598</v>
+        <v>50.12538912124792</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.11658659836992</v>
+        <v>58.11658659833525</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>61.9707946260731</v>
+        <v>61.97079462604172</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.60151630627589</v>
+        <v>31.60151630626031</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.54794753240328</v>
+        <v>51.547947532376</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>58.46359909352471</v>
+        <v>58.46359909353096</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>40.68103002926757</v>
+        <v>40.68103002929247</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>43.3721079775125</v>
+        <v>43.37210797759651</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>51.36272913025626</v>
+        <v>51.36272913023738</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>55.2166232908241</v>
+        <v>55.21662329079363</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.84979941892421</v>
+        <v>24.84979941892466</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.79505506837684</v>
+        <v>44.79505506839457</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>51.70985409003295</v>
+        <v>51.7098540900608</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.56775597191048</v>
+        <v>14.56775597193651</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.13107400720931</v>
+        <v>49.13107400719362</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.26947316570734</v>
+        <v>56.26947316567767</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.81344507932814</v>
+        <v>25.81344507926208</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.38327905914964</v>
+        <v>40.38327905909917</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.06257712165036</v>
+        <v>46.06257712163263</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.60786972725448</v>
+        <v>39.60786972725857</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.7709925925006</v>
+        <v>46.77099259251789</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.35956072665233</v>
+        <v>51.35956072662198</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>54.0526063185102</v>
+        <v>54.052606318511</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.04380265900086</v>
+        <v>62.04380265894572</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.89803589749916</v>
+        <v>65.89803589746903</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.52857276558434</v>
+        <v>35.52857276559889</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.47518980710716</v>
+        <v>55.47518980706714</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.39083798318002</v>
+        <v>62.3908379831616</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.27250633846866</v>
+        <v>33.27250633851743</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.96311483139864</v>
+        <v>35.96311483144332</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.95365679386994</v>
+        <v>43.95365679390393</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.80763375390968</v>
+        <v>47.80763375391116</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.44121795024281</v>
+        <v>17.44121795026645</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.3860746285613</v>
+        <v>37.38607462859109</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.30104697658074</v>
+        <v>44.3010469766062</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>7.160267462686267</v>
+        <v>7.160267462715144</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.72311427688267</v>
+        <v>41.72311427691177</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>48.86164677055019</v>
+        <v>48.86164677061545</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>18.40500255750313</v>
+        <v>18.40500255752405</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.97449414823946</v>
+        <v>32.97449414826674</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.65394914514702</v>
+        <v>38.65394914514191</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.19898639278058</v>
+        <v>32.19898639277694</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.36183957123508</v>
+        <v>39.36183957122871</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.95055449016429</v>
+        <v>43.95055449015327</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.64313060186949</v>
+        <v>46.64313060187062</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.63424775205426</v>
+        <v>54.63424775199537</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.48856379428135</v>
+        <v>58.48856379428078</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.1195087141419</v>
+        <v>28.1195087141319</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.06572678781272</v>
+        <v>48.06572678780908</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>54.98154830463245</v>
+        <v>54.98154830465246</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-11.4576492485791</v>
+        <v>-11.45764924861639</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.09730111369523</v>
+        <v>23.09730111372797</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.23284045542569</v>
+        <v>30.23284045544638</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-0.2128318592753367</v>
+        <v>-0.2128318592580563</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.35021204879247</v>
+        <v>14.35021204882215</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.02706634664237</v>
+        <v>20.02706634666909</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.57420023477899</v>
+        <v>13.5742002347641</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.73180513246708</v>
+        <v>20.7318051324241</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.31830104985336</v>
+        <v>25.31830104981914</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.00767563895177</v>
+        <v>28.00767563893836</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.99512517616434</v>
+        <v>35.99512517612375</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.84769220262463</v>
+        <v>39.84769220258768</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>9.48943975525761</v>
+        <v>9.489439755308201</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.42700989946168</v>
+        <v>29.42700989944645</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.34032911441894</v>
+        <v>36.34032911442269</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-7.416161616825587</v>
+        <v>-7.41616161685651</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.14325085813933</v>
+        <v>27.14325085813944</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.28097363143054</v>
+        <v>34.28097363144066</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3.824834922906764</v>
+        <v>3.824834922924726</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>18.39173942880094</v>
+        <v>18.39173942880776</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.07039116914639</v>
+        <v>24.07039116919278</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.61593010313455</v>
+        <v>17.61593010316183</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.77671965596229</v>
+        <v>24.77671965594682</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-3.551178088688214</v>
+        <v>-3.551178088654449</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.00448400172452</v>
+        <v>31.00448400170315</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.13998218796014</v>
+        <v>38.13998218795253</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>7.694946220288177</v>
+        <v>7.69494622026669</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.25851307458045</v>
+        <v>22.25851307455897</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.93529807933369</v>
+        <v>27.9352980792914</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>21.48244315607925</v>
+        <v>21.48244315608675</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.64046030922175</v>
+        <v>28.64046030920152</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.2268863373359</v>
+        <v>33.2268863373226</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.91668548219339</v>
+        <v>35.91668548219828</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.90425163708262</v>
+        <v>43.90425163708422</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.75682011154034</v>
+        <v>47.75682011151487</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.3978487970082</v>
+        <v>17.39784879702025</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.33605431367899</v>
+        <v>37.33605431366387</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.24929122444651</v>
+        <v>44.24929122451734</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0.4919353421143633</v>
+        <v>0.491935342146764</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.05205961365751</v>
+        <v>35.05205961368593</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.1897412624581</v>
+        <v>42.1897412624764</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.73423893448838</v>
+        <v>11.73423893451305</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.30166644582774</v>
+        <v>26.3016664458465</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.98024891732264</v>
+        <v>31.98024891734629</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.5257990653732</v>
+        <v>25.52579906544311</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.68700092303204</v>
+        <v>32.68700092304046</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.3741071485109906</v>
+        <v>0.3741071485084895</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.92988620102581</v>
+        <v>34.92988620101865</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.06539168165484</v>
+        <v>42.06539168163017</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>11.62077994346608</v>
+        <v>11.62077994347802</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.18450649730717</v>
+        <v>26.18450649728455</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.86129487615581</v>
+        <v>31.86129487609397</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.40835629000511</v>
+        <v>25.40835629005001</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.56652832300456</v>
+        <v>32.56652832299581</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.15295666178254</v>
+        <v>37.1529566618071</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.84275817112423</v>
+        <v>39.84275817116891</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.83032320139644</v>
+        <v>47.83032320135972</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>51.68291688527331</v>
+        <v>51.68291688521283</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.3237607544673</v>
+        <v>21.32376075443627</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.26215207542266</v>
+        <v>41.26215207539811</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>48.17538560360363</v>
+        <v>48.17538560356009</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>4.41783027394634</v>
+        <v>4.417830273922124</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>38.97807151490504</v>
+        <v>38.97807151487787</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>46.1157604637029</v>
+        <v>46.11576046375235</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.66068242731133</v>
+        <v>15.66068242730042</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.22826964612985</v>
+        <v>30.22826964613201</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.90685549682355</v>
+        <v>35.90685549684277</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.45232198074844</v>
+        <v>29.45232198067636</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.61367872603292</v>
+        <v>36.61367872598267</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-7.031191502127552</v>
+        <v>-7.031191502128006</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.52411640616988</v>
+        <v>27.52411640615579</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.65975520432035</v>
+        <v>34.65975520431398</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.214527526993226</v>
+        <v>4.214527527029265</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>18.77791175030184</v>
+        <v>18.77791175029184</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.45485704144831</v>
+        <v>24.45485704144081</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.00166316685211</v>
+        <v>18.00166316693056</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.15956556004558</v>
+        <v>25.15956556009651</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.74614066264754</v>
+        <v>29.74614066268937</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.43547272100598</v>
+        <v>32.43547272102326</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.42295857218456</v>
+        <v>40.42295857215102</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>44.27563504351583</v>
+        <v>44.27563504350344</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>13.9168869175539</v>
+        <v>13.9168869175996</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.85487934136036</v>
+        <v>33.85487934140913</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.76828618973214</v>
+        <v>40.76828618973748</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-2.988938892839695</v>
+        <v>-2.988938892795925</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.57083115721305</v>
+        <v>31.57083115720578</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.70865341445376</v>
+        <v>38.70865341449594</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>8.252959371674326</v>
+        <v>8.252959371719346</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.8202042230749</v>
+        <v>22.82020422307683</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.49894698067654</v>
+        <v>28.49894698069462</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.04415812500629</v>
+        <v>22.04415812499936</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.20524520076124</v>
+        <v>29.20524520077386</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.36473244536463</v>
+        <v>29.36473244536531</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.05513268214493</v>
+        <v>32.05513268212515</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>40.04514552121289</v>
+        <v>40.04514552114956</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.89899599294229</v>
+        <v>43.89899599293172</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.5348694730529</v>
+        <v>13.53486947304448</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.47797410997539</v>
+        <v>33.47797410997755</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.39279074697772</v>
+        <v>40.39279074704559</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>3.254788680463282</v>
+        <v>3.25478868040064</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.81542480175933</v>
+        <v>37.8154248017225</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>44.95374964635262</v>
+        <v>44.95374964634034</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.49829262271961</v>
+        <v>14.49829262273461</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.06642794148248</v>
+        <v>29.06642794152761</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.74574211378497</v>
+        <v>34.74574211382408</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.29146595626772</v>
+        <v>28.29146595622588</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.45336092831253</v>
+        <v>35.45336092828434</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.04197124405466</v>
+        <v>40.04197124404443</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.73433905094357</v>
+        <v>42.73433905087104</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>50.72492703725068</v>
+        <v>50.72492703718042</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.57911656569918</v>
+        <v>54.5791165656919</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.21235092272999</v>
+        <v>24.21235092270441</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.15681688770765</v>
+        <v>44.15681688767263</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>51.07248264256323</v>
+        <v>51.07248264258222</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>37.27494384328061</v>
+        <v>37.27494384327549</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.96576858410988</v>
+        <v>39.9657685840652</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>47.95589805205812</v>
+        <v>47.9558980520472</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>51.80974998236452</v>
+        <v>51.80974998236304</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.44490453856527</v>
+        <v>21.44490453855822</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.38864463021226</v>
+        <v>41.38864463024443</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>48.3033789824927</v>
+        <v>48.3033789825043</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>11.1637634940458</v>
+        <v>11.16376349400931</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.7251114225506</v>
+        <v>45.72511142257447</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.86339512350601</v>
+        <v>52.86339512355103</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.40857460425874</v>
+        <v>22.40857460423804</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.97723293476118</v>
+        <v>36.97723293474822</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.65647782203503</v>
+        <v>42.65647782201263</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.20221290946877</v>
+        <v>36.20221290946547</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.36452019099461</v>
+        <v>43.36452019095687</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.95306062374841</v>
+        <v>47.95306062375842</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>50.64585297281208</v>
+        <v>50.6458529727832</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>58.63655759005788</v>
+        <v>58.63655759004537</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>62.49074856975069</v>
+        <v>62.4907485697217</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.1232639931264</v>
+        <v>32.1232639930907</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.06836541521484</v>
+        <v>52.06836541522757</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.98394887355251</v>
+        <v>58.98394887358218</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.20162396158976</v>
+        <v>41.20162396153337</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>43.89245100982551</v>
+        <v>43.8924510097922</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>51.88257934449469</v>
+        <v>51.88257934450003</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.73645648797044</v>
+        <v>55.73645648794634</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.37142624206361</v>
+        <v>25.37142624204951</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.31535214632659</v>
+        <v>45.31535214630988</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.23008312182692</v>
+        <v>52.23008312182442</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.09007461879692</v>
+        <v>15.09007461880181</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>49.65153951688644</v>
+        <v>49.65153951687257</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>56.78983050772952</v>
+        <v>56.78983050772793</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.33543431527615</v>
+        <v>26.33543431522124</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.90425235080643</v>
+        <v>40.90425235076459</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.5835006103493</v>
+        <v>46.58350061032964</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>40.12915205320787</v>
+        <v>40.12915205325039</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>47.29161421990746</v>
+        <v>47.29161421986892</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>51.88015696231976</v>
+        <v>51.88015696229463</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>54.57295162219641</v>
+        <v>54.57295162221187</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>62.56365510380301</v>
+        <v>62.56365510376561</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>66.41787129290499</v>
+        <v>66.41787129291966</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.05020190983983</v>
+        <v>36.05020190979197</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.99548913975441</v>
+        <v>55.995489139746</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>62.91106921451747</v>
+        <v>62.91106921452349</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.79333719583595</v>
+        <v>33.79333719581776</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.48369480581512</v>
+        <v>36.48369480578158</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.47374395576658</v>
+        <v>44.47374395575112</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.32770389507546</v>
+        <v>48.32770389509467</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.96308169620439</v>
+        <v>17.96308169624168</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.90660865340574</v>
+        <v>37.90660865341268</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.82151294569765</v>
+        <v>44.82151294576006</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.682822989170138</v>
+        <v>7.682822989148537</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.24381669331645</v>
+        <v>42.24381669335112</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.38224100943837</v>
+        <v>49.38224100938449</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.9272287094678</v>
+        <v>18.92722870944859</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.49570437714722</v>
+        <v>33.4957043772085</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.17510956105544</v>
+        <v>39.17510956111637</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>32.72050565050786</v>
+        <v>32.72050565055834</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.88269814798964</v>
+        <v>39.88269814802966</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>44.47138766614121</v>
+        <v>44.471387666176</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>47.16371286280283</v>
+        <v>47.16371286277099</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>55.15433715945399</v>
+        <v>55.15433715937611</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>59.00863614874682</v>
+        <v>59.00863614870464</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.64137479644258</v>
+        <v>28.64137479642189</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>48.58626308232722</v>
+        <v>48.58626308228732</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>55.50201648851267</v>
+        <v>55.50201648853484</v>
       </c>
     </row>
   </sheetData>
